--- a/PCB/Switch_Library_Component_Names.xlsx
+++ b/PCB/Switch_Library_Component_Names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SW_PUSH_1P1T_OFF-ON</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>SW_ROCKER_ON-OFF-ON</t>
+  </si>
+  <si>
+    <t>SW_FSM4JH_PTH</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,6 +461,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
   <headerFooter>
